--- a/Helper/doc/사이트분석.xlsx
+++ b/Helper/doc/사이트분석.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>해당품목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,15 +431,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +439,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -718,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:W31"/>
+  <dimension ref="B4:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -729,119 +744,129 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,56 +900,102 @@
       <c r="P6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -946,29 +1017,26 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -982,191 +1050,214 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1184,18 +1275,25 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1214,22 +1312,21 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1248,19 +1345,26 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1278,12 +1382,19 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1304,12 +1415,15 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1330,12 +1444,15 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1356,11 +1473,16 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1380,8 +1502,11 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1404,12 +1529,15 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1428,12 +1556,15 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1452,8 +1583,11 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1476,8 +1610,11 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1500,8 +1637,11 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1524,8 +1664,11 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1548,8 +1691,11 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1572,15 +1718,46 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="7">
+    <mergeCell ref="Q4:Z4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:P4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
